--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3254.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3254.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.801087744679027</v>
+        <v>0.8171977400779724</v>
       </c>
       <c r="B1">
-        <v>1.845361673229766</v>
+        <v>3.076165676116943</v>
       </c>
       <c r="C1">
-        <v>1.934819487612353</v>
+        <v>2.536687135696411</v>
       </c>
       <c r="D1">
-        <v>2.643540735305165</v>
+        <v>2.213939428329468</v>
       </c>
       <c r="E1">
-        <v>3.58769693071688</v>
+        <v>1.887593626976013</v>
       </c>
     </row>
   </sheetData>
